--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_kitchens_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,38 +512,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_p659z.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>84.21621621621621</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N2">
-        <v>65.37837837837837</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O2">
-        <v>74.79729729729729</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -835,38 +835,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_inqod.png</t>
+          <t>stimuli/img_eatdk.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>70.84848484848484</v>
+        <v>81.40625</v>
       </c>
       <c r="N6">
-        <v>50.63636363636363</v>
+        <v>61.375</v>
       </c>
       <c r="O6">
-        <v>60.74242424242424</v>
+        <v>71.390625</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -912,38 +912,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_p3hpc.png</t>
+          <t>stimuli/img_30vz5.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>72.83333333333333</v>
+        <v>86.21212121212122</v>
       </c>
       <c r="N7">
-        <v>52.22222222222222</v>
+        <v>68.27272727272727</v>
       </c>
       <c r="O7">
-        <v>62.52777777777777</v>
+        <v>77.24242424242425</v>
       </c>
       <c r="P7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1071,38 +1071,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_ce9vx.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>75.90909090909091</v>
+        <v>66.8</v>
       </c>
       <c r="N9">
-        <v>57.12121212121212</v>
+        <v>42.08</v>
       </c>
       <c r="O9">
-        <v>66.51515151515152</v>
+        <v>54.44</v>
       </c>
       <c r="P9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1148,38 +1148,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_iyxnj.png</t>
+          <t>stimuli/img_p659z.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>75.30555555555556</v>
+        <v>84.21621621621621</v>
       </c>
       <c r="N10">
-        <v>54.33333333333334</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="O10">
-        <v>64.81944444444444</v>
+        <v>74.79729729729729</v>
       </c>
       <c r="P10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1307,38 +1307,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_ye5sl.png</t>
+          <t>stimuli/img_cnyac.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>53.2258064516129</v>
+        <v>69.14705882352941</v>
       </c>
       <c r="N12">
-        <v>34.45161290322581</v>
+        <v>47.8235294117647</v>
       </c>
       <c r="O12">
-        <v>43.83870967741936</v>
+        <v>58.48529411764706</v>
       </c>
       <c r="P12">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1360,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1590,38 +1590,38 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_cnyac.png</t>
+          <t>stimuli/img_njmgp.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>69.14705882352941</v>
+        <v>80.48148148148148</v>
       </c>
       <c r="N16">
-        <v>47.8235294117647</v>
+        <v>58.4074074074074</v>
       </c>
       <c r="O16">
-        <v>58.48529411764706</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="P16">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1667,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_nyv2b.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>11.91176470588235</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N17">
-        <v>6.852941176470588</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O17">
-        <v>9.382352941176471</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1744,38 +1744,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_d8xbu.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>91.36363636363636</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N18">
-        <v>73.18181818181819</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O18">
-        <v>82.27272727272728</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P18">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V18">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1821,38 +1821,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_aplao.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>64.09090909090909</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N19">
-        <v>40.75757575757576</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O19">
-        <v>52.42424242424242</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P19">
         <v>33</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1980,38 +1980,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_6nbgt.png</t>
+          <t>stimuli/img_t90e2.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>78.45161290322581</v>
+        <v>83.0625</v>
       </c>
       <c r="N21">
-        <v>57.83870967741935</v>
+        <v>61.96875</v>
       </c>
       <c r="O21">
-        <v>68.14516129032258</v>
+        <v>72.515625</v>
       </c>
       <c r="P21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2033,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2221,38 +2221,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_yeh72.png</t>
+          <t>stimuli/img_6nbgt.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>68.66666666666667</v>
+        <v>78.45161290322581</v>
       </c>
       <c r="N24">
-        <v>45.21212121212121</v>
+        <v>57.83870967741935</v>
       </c>
       <c r="O24">
-        <v>56.93939393939394</v>
+        <v>68.14516129032258</v>
       </c>
       <c r="P24">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2274,7 +2274,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2626,38 +2626,38 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_njmgp.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>80.48148148148148</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N29">
-        <v>58.4074074074074</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O29">
-        <v>69.44444444444444</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P29">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2679,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2785,20 +2785,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_cv6mf.png</t>
+          <t>stimuli/img_yeh72.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>66.8</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="N31">
-        <v>42.08</v>
+        <v>45.21212121212121</v>
       </c>
       <c r="O31">
-        <v>54.44</v>
+        <v>56.93939393939394</v>
       </c>
       <c r="P31">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -2838,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2862,38 +2862,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_wyl6z.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>59.8235294117647</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N32">
-        <v>36.23529411764706</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O32">
-        <v>48.02941176470588</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P32">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2915,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3021,38 +3021,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_7wul8.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>43.03030303030303</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N34">
-        <v>25.54545454545455</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O34">
-        <v>34.28787878787879</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P34">
         <v>33</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3074,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3344,38 +3344,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_es7o2.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>52.48571428571429</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N38">
-        <v>27.54285714285714</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O38">
-        <v>40.01428571428572</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3421,38 +3421,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_30vz5.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>86.21212121212122</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N39">
-        <v>68.27272727272727</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O39">
-        <v>77.24242424242425</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3580,38 +3580,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_t90e2.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>83.0625</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N41">
-        <v>61.96875</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O41">
-        <v>72.515625</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P41">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V41">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3633,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3657,38 +3657,38 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_eatdk.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>81.40625</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N42">
-        <v>61.375</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O42">
-        <v>71.390625</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P42">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/2_scenecat_memory_kitchens_1.xlsx
@@ -1461,7 +1461,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/catch_15_stairs.jpg</t>
+          <t>stimuli/catch_29.jpg</t>
         </is>
       </c>
     </row>
